--- a/list.xlsx
+++ b/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>CVE-2015-1287</t>
   </si>
@@ -78,7 +78,67 @@
     <t>deusen method for sop bypassing</t>
   </si>
   <si>
-    <t>unknown (tested on version 13)</t>
+    <t>bugs.chromium.com - id = 572507</t>
+  </si>
+  <si>
+    <t>chrome 47.0.2526.73 (also worked on 52)</t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t>unknown 1</t>
+  </si>
+  <si>
+    <t>before  36.0.1985.125</t>
+  </si>
+  <si>
+    <t>CVE-2014-3160</t>
+  </si>
+  <si>
+    <t>tested on ios 7</t>
+  </si>
+  <si>
+    <t>6.0.2 (ios and mac)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+  </si>
+  <si>
+    <t>tested on version 13</t>
+  </si>
+  <si>
+    <t>tested on 11</t>
+  </si>
+  <si>
+    <t>Gareth Heyes Bug</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>before 12.10</t>
+  </si>
+  <si>
+    <t>CVE 2014-6041</t>
+  </si>
+  <si>
+    <t>Android before 4.4</t>
+  </si>
+  <si>
+    <t>Object tag</t>
+  </si>
+  <si>
+    <t>url's for uxss</t>
+  </si>
+  <si>
+    <t>some url's to create uxss in browsers</t>
+  </si>
+  <si>
+    <t>tested but did not work on chrome 44 and 52, firefox 43.4</t>
+  </si>
+  <si>
+    <t>blackhat 2016 conf. sop bypassing test 1</t>
   </si>
 </sst>
 </file>
@@ -413,20 +473,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -437,7 +498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,128 +509,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -580,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -591,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -743,6 +813,75 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
